--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/42/word_level_predictions_42.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G78" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23954,314 +23954,314 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" t="n">
         <v>37</v>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" s="2" t="n">
+      <c r="D453" t="n">
         <v>8</v>
       </c>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L453" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" t="n">
         <v>37</v>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" s="2" t="n">
+      <c r="D454" t="n">
         <v>9</v>
       </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L454" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" t="n">
         <v>37</v>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" s="2" t="n">
+      <c r="D455" t="n">
         <v>10</v>
       </c>
-      <c r="E455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L455" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" t="n">
         <v>37</v>
       </c>
-      <c r="B456" s="2" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" s="2" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" s="2" t="n">
+      <c r="D456" t="n">
         <v>11</v>
       </c>
-      <c r="E456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L456" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K456" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>37</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>12</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>37</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
+      <c r="D458" t="n">
         <v>13</v>
       </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -24289,7 +24289,7 @@
       </c>
       <c r="F459" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G459" s="2" t="b">
@@ -24313,7 +24313,7 @@
       </c>
       <c r="L459" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24445,7 +24445,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G462" t="b">
@@ -24469,57 +24469,57 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="n">
+      <c r="A463" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B463" t="inlineStr">
+      <c r="B463" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C463" t="inlineStr">
+      <c r="C463" s="2" t="inlineStr">
         <is>
           <t>Detected</t>
         </is>
       </c>
-      <c r="D463" t="n">
+      <c r="D463" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E463" t="inlineStr">
+      <c r="E463" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F463" t="inlineStr">
+      <c r="F463" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G463" t="b">
-        <v>1</v>
-      </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I463" t="b">
-        <v>1</v>
-      </c>
-      <c r="J463" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K463" t="b">
-        <v>1</v>
-      </c>
-      <c r="L463" t="inlineStr">
+      <c r="G463" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H463" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I463" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J463" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K463" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L463" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25514,104 +25514,104 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="n">
+      <c r="A483" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B483" t="inlineStr">
+      <c r="B483" s="2" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C483" t="inlineStr">
+      <c r="C483" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D483" t="n">
+      <c r="D483" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E483" t="inlineStr">
+      <c r="E483" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F483" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G483" t="b">
-        <v>1</v>
-      </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I483" t="b">
-        <v>1</v>
-      </c>
-      <c r="J483" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K483" t="b">
-        <v>1</v>
-      </c>
-      <c r="L483" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F483" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G483" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I483" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J483" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K483" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L483" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="n">
+      <c r="A484" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B484" t="inlineStr">
+      <c r="B484" s="2" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C484" t="inlineStr">
+      <c r="C484" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D484" t="n">
+      <c r="D484" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E484" t="inlineStr">
+      <c r="E484" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F484" t="inlineStr">
+      <c r="F484" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G484" t="b">
-        <v>1</v>
-      </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I484" t="b">
-        <v>1</v>
-      </c>
-      <c r="J484" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K484" t="b">
-        <v>1</v>
-      </c>
-      <c r="L484" t="inlineStr">
+      <c r="G484" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I484" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J484" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K484" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L484" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori2/42/word_level_predictions_42.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G78" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23954,314 +23954,314 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
+      <c r="A453" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G453" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K453" t="b">
-        <v>1</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
+      <c r="A454" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B454" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
+      <c r="A455" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K455" t="b">
-        <v>1</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
+      <c r="A456" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K456" t="b">
-        <v>1</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J456" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L456" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24289,7 +24289,7 @@
       </c>
       <c r="F459" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G459" s="2" t="b">
@@ -24313,7 +24313,7 @@
       </c>
       <c r="L459" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24445,81 +24445,81 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G462" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I462" t="b">
+        <v>1</v>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K462" t="b">
+        <v>1</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>38</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Detected</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>2</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G462" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I462" t="b">
-        <v>1</v>
-      </c>
-      <c r="J462" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K462" t="b">
-        <v>1</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B463" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
-        </is>
-      </c>
-      <c r="C463" s="2" t="inlineStr">
-        <is>
-          <t>Detected</t>
-        </is>
-      </c>
-      <c r="D463" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E463" s="2" t="inlineStr">
+      <c r="F463" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F463" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G463" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H463" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I463" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J463" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K463" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L463" s="2" t="inlineStr">
+      <c r="G463" t="b">
+        <v>1</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I463" t="b">
+        <v>1</v>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K463" t="b">
+        <v>1</v>
+      </c>
+      <c r="L463" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25514,104 +25514,104 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="2" t="n">
+      <c r="A483" t="n">
         <v>40</v>
       </c>
-      <c r="B483" s="2" t="inlineStr">
+      <c r="B483" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C483" s="2" t="inlineStr">
+      <c r="C483" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D483" s="2" t="n">
+      <c r="D483" t="n">
         <v>3</v>
       </c>
-      <c r="E483" s="2" t="inlineStr">
+      <c r="E483" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F483" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G483" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H483" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I483" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J483" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K483" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L483" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G483" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I483" t="b">
+        <v>1</v>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K483" t="b">
+        <v>1</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="2" t="n">
+      <c r="A484" t="n">
         <v>40</v>
       </c>
-      <c r="B484" s="2" t="inlineStr">
+      <c r="B484" t="inlineStr">
         <is>
           <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
-      <c r="C484" s="2" t="inlineStr">
+      <c r="C484" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D484" s="2" t="n">
+      <c r="D484" t="n">
         <v>4</v>
       </c>
-      <c r="E484" s="2" t="inlineStr">
+      <c r="E484" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F484" s="2" t="inlineStr">
+      <c r="F484" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G484" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H484" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I484" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J484" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K484" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L484" s="2" t="inlineStr">
+      <c r="G484" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I484" t="b">
+        <v>1</v>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K484" t="b">
+        <v>1</v>
+      </c>
+      <c r="L484" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
